--- a/biology/Zoologie/Copelatus/Copelatus.xlsx
+++ b/biology/Zoologie/Copelatus/Copelatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Copelatus est un genre d'insectes coléoptères aquatiques de la famille des Dytiscidae et de la sous-famille des Copelatinae.
 </t>
@@ -511,15 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Copelatus est décrit en 1832 par Wilhelm Ferdinand Erichson[1],[2].
-Fossiles
-Selon Paleobiology Database en 2023, six collections de fossiles pour neuf occurrences sont référencées[2] :
-Miocène, une de la République Dominicaine, une au mexique et deux en Russie ;
-Oliocène, une collection en France ;
-Éocène, une collection en Russie[2].
-Ceci atteste la présence du genre depuis le Priabonien de l'Éocène supérieur, soit 38 Ma avant notre ère[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Copelatus est décrit en 1832 par Wilhelm Ferdinand Erichson,.
 </t>
         </is>
       </c>
@@ -545,12 +553,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, six collections de fossiles pour neuf occurrences sont référencées :
+Miocène, une de la République Dominicaine, une au mexique et deux en Russie ;
+Oliocène, une collection en France ;
+Éocène, une collection en Russie.
+Ceci atteste la présence du genre depuis le Priabonien de l'Éocène supérieur, soit 38 Ma avant notre ère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Copelatus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Copelatus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database en 2023, le nombre d'espèces fossiles est de six[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, le nombre d'espèces fossiles est de six :
 †Copelatus aphroditae Balke, 2003
 †Copelatus convexus Förster, 1891
 †Copelatus fossilis Říha, 1974
@@ -561,31 +612,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Copelatus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Copelatus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 liste des espèces du genre Copelatus
@@ -663,7 +716,7 @@
 Copelatus carayoni Legros, 1949
 Copelatus carinatus Sharp, 1882
 Copelatus celinoides Guignot, 1952
-Copelatus cessaima Caetano, de C. Bena, &amp; Vanin, 2013[3]
+Copelatus cessaima Caetano, de C. Bena, &amp; Vanin, 2013
 Copelatus ceylonicus Vazirani, 1969
 Copelatus cheesmanae J.Balfour-Browne, 1939
 Copelatus chevrolati Aubé, 1838
@@ -682,7 +735,7 @@
 Copelatus consimilis Bilardo &amp; Rocchi, 2002
 Copelatus consors Sharp, 1882
 Copelatus cooperae Bilardo &amp; Pederzani, 1972
-Copelatus cordovai Megna &amp; Epler, 2012[4]
+Copelatus cordovai Megna &amp; Epler, 2012
 Copelatus cordylinoides J.Balfour-Browne, 1938
 Copelatus coxalis Sharp, 1882
 Copelatus crassus Régimbart, 1895
@@ -690,7 +743,7 @@
 Copelatus cubaensis Schaeffer, 1908
 Copelatus curtistriatus Bilardo &amp; Rocchi, 1995
 Copelatus daemeli Sharp, 1882
-Copelatus danyi Megna &amp; Epler, 2012[4]
+Copelatus danyi Megna &amp; Epler, 2012
 Copelatus darlingtoni Young, 1942
 Copelatus debilis Sharp, 1882
 Copelatus decellei Bilardo, 1982
